--- a/IPS.xlsx
+++ b/IPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Santiago\Proyectos\hackaton-2026\hackaton-2025-petrack-sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6A4697-0EE0-4995-9A68-B04421BE692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6654103-17D5-43E2-849A-17835AF5F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7241989D-DC5B-4F8A-9580-4CE45AD5E7DA}"/>
+    <workbookView xWindow="19720" yWindow="520" windowWidth="14400" windowHeight="7350" xr2:uid="{7241989D-DC5B-4F8A-9580-4CE45AD5E7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>localhost</t>
   </si>
@@ -54,13 +52,40 @@
   </si>
   <si>
     <t>santiago-cas21</t>
+  </si>
+  <si>
+    <t>sudo systemctl status postgresql</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>DATABASE_NAME</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,20 +457,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8BAC9-C0C4-428F-BC43-3FB95A9261F6}">
-  <dimension ref="B3:I3"/>
+  <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -469,9 +525,13 @@
       </c>
       <c r="I3" t="s">
         <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>